--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1001">
   <si>
     <t>anchor score</t>
   </si>
@@ -457,442 +457,442 @@
     <t>corona</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>financial</t>
   </si>
   <si>
     <t>new</t>
@@ -3385,7 +3385,7 @@
         <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3443,7 +3443,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02868480338699294</v>
+        <v>0.02914147879017638</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -3464,16 +3464,16 @@
         <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K3">
-        <v>0.004556661563269434</v>
+        <v>0.007804183674994627</v>
       </c>
       <c r="L3">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3493,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02013781769797818</v>
+        <v>0.02045842111618494</v>
       </c>
       <c r="C4">
         <v>69</v>
@@ -3514,16 +3514,16 @@
         <v>447</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K4">
-        <v>0.004282615485727117</v>
+        <v>0.007300145373821063</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3543,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01028546929837982</v>
+        <v>0.01044921875049907</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -3564,16 +3564,16 @@
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K5">
-        <v>0.004032924365565515</v>
+        <v>0.004556661563269434</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3593,7 +3593,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009995679449126832</v>
+        <v>0.01015481531214593</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3614,16 +3614,16 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K6">
-        <v>0.003989790244486845</v>
+        <v>0.004282615485727117</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3643,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009697233451427218</v>
+        <v>0.009851617915439355</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -3664,28 +3664,28 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="K7">
-        <v>0.003975820608294081</v>
+        <v>0.004032924365565515</v>
       </c>
       <c r="L7">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>219</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3693,7 +3693,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008398050515364222</v>
+        <v>0.008531751383148376</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3714,16 +3714,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K8">
-        <v>0.00372049858685428</v>
+        <v>0.003989790244486845</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3743,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.006856979532253216</v>
+        <v>0.006966145833666048</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3764,28 +3764,28 @@
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="K9">
-        <v>0.00372049858685428</v>
+        <v>0.003975820608294081</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>123</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3793,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006856979532253216</v>
+        <v>0.006966145833666048</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3814,28 +3814,28 @@
         <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="K10">
-        <v>0.003582709187106568</v>
+        <v>0.00372049858685428</v>
       </c>
       <c r="L10">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="N10">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2756</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3843,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006856979532253216</v>
+        <v>0.006966145833666048</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3864,16 +3864,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K11">
-        <v>0.003379310659172573</v>
+        <v>0.00372049858685428</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3893,7 +3893,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006856979532253216</v>
+        <v>0.006966145833666048</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3914,28 +3914,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.003370477285325085</v>
+        <v>0.003582709187106568</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3943,7 +3943,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006414117029453242</v>
+        <v>0.006516232753970271</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -3964,16 +3964,16 @@
         <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K13">
-        <v>0.003222046290959911</v>
+        <v>0.003379310659172573</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3993,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006414117029453242</v>
+        <v>0.006516232753970271</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4014,28 +4014,28 @@
         <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K14">
-        <v>0.003139144194159541</v>
+        <v>0.003370477285325085</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4043,7 +4043,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005938318468161221</v>
+        <v>0.006032859258421923</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K15">
-        <v>0.003112792446397492</v>
+        <v>0.003222046290959911</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>239</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4093,7 +4093,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005938318468161221</v>
+        <v>0.006032859258421923</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4114,28 +4114,28 @@
         <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="K16">
-        <v>0.003056701501779274</v>
+        <v>0.003139144194159541</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4143,7 +4143,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005938318468161221</v>
+        <v>0.006032859258421923</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4164,16 +4164,16 @@
         <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K17">
-        <v>0.003056701501779274</v>
+        <v>0.003112792446397492</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4193,7 +4193,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005938318468161221</v>
+        <v>0.006032859258421923</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4214,28 +4214,28 @@
         <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>161</v>
+        <v>302</v>
       </c>
       <c r="K18">
-        <v>0.002995066367711303</v>
+        <v>0.003056701501779274</v>
       </c>
       <c r="L18">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4243,7 +4243,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005938318468161221</v>
+        <v>0.006032859258421923</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4264,16 +4264,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K19">
-        <v>0.002941312391474328</v>
+        <v>0.003056701501779274</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4293,7 +4293,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005938318468161221</v>
+        <v>0.006032859258421923</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4314,28 +4314,28 @@
         <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="K20">
-        <v>0.00293813913260426</v>
+        <v>0.002995066367711303</v>
       </c>
       <c r="L20">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="M20">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1908</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4343,7 +4343,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4364,16 +4364,16 @@
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K21">
-        <v>0.002759195599107026</v>
+        <v>0.002941312391474328</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4393,7 +4393,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4414,28 +4414,28 @@
         <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.002630789780159628</v>
+        <v>0.00293813913260426</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4443,7 +4443,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4464,16 +4464,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K23">
-        <v>0.002630789780159628</v>
+        <v>0.002759195599107026</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4493,7 +4493,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4514,28 +4514,28 @@
         <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="K24">
-        <v>0.002566663543085689</v>
+        <v>0.002630789780159628</v>
       </c>
       <c r="L24">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4543,7 +4543,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4564,16 +4564,16 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K25">
-        <v>0.002564176695164109</v>
+        <v>0.002630789780159628</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4593,7 +4593,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4614,28 +4614,28 @@
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>309</v>
+        <v>154</v>
       </c>
       <c r="K26">
-        <v>0.002564176695164109</v>
+        <v>0.002566663543085689</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4643,7 +4643,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4664,7 +4664,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K27">
         <v>0.002564176695164109</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4693,7 +4693,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4714,7 +4714,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K28">
         <v>0.002564176695164109</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4743,7 +4743,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005420918297769041</v>
+        <v>0.005507221836819293</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4764,28 +4764,28 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="K29">
-        <v>0.002558801644244131</v>
+        <v>0.002564176695164109</v>
       </c>
       <c r="L29">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>2995</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4793,7 +4793,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4814,16 +4814,16 @@
         <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K30">
-        <v>0.002425468333597347</v>
+        <v>0.002564176695164109</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4843,7 +4843,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4864,28 +4864,28 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="K31">
-        <v>0.002353049913179462</v>
+        <v>0.002558801644244131</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4893,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4914,28 +4914,28 @@
         <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="K32">
-        <v>0.00235116015344785</v>
+        <v>0.002425468333597347</v>
       </c>
       <c r="L32">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4943,7 +4943,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4964,16 +4964,16 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K33">
-        <v>0.002201076647273929</v>
+        <v>0.002353049913179462</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4993,7 +4993,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5014,28 +5014,28 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="K34">
-        <v>0.002201076647273929</v>
+        <v>0.00235116015344785</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5043,7 +5043,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5064,28 +5064,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="K35">
-        <v>0.002192451781102995</v>
+        <v>0.002201076647273929</v>
       </c>
       <c r="L35">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>159</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5093,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5114,16 +5114,16 @@
         <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K36">
-        <v>0.00212101052892366</v>
+        <v>0.002201076647273929</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5143,7 +5143,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5164,28 +5164,28 @@
         <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>317</v>
+        <v>147</v>
       </c>
       <c r="K37">
-        <v>0.00212101052892366</v>
+        <v>0.002192451781102995</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5193,7 +5193,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5214,7 +5214,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K38">
         <v>0.00212101052892366</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5243,7 +5243,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5264,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K39">
         <v>0.00212101052892366</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5293,7 +5293,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004848616725713609</v>
+        <v>0.004925808957719677</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5314,7 +5314,7 @@
         <v>145</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K40">
         <v>0.00212101052892366</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5343,7 +5343,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5364,28 +5364,28 @@
         <v>18</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="K41">
-        <v>0.002108533244418132</v>
+        <v>0.00212101052892366</v>
       </c>
       <c r="L41">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5393,7 +5393,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5414,28 +5414,28 @@
         <v>8</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="K42">
-        <v>0.002078539406902084</v>
+        <v>0.00212101052892366</v>
       </c>
       <c r="L42">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>796</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5443,7 +5443,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5464,28 +5464,28 @@
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K43">
-        <v>0.002061791106100826</v>
+        <v>0.002078539406902084</v>
       </c>
       <c r="L43">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="M43">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>152</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5493,7 +5493,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5543,7 +5543,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5593,7 +5593,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5643,7 +5643,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5693,7 +5693,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5743,7 +5743,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5793,7 +5793,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5843,7 +5843,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K51">
         <v>0.001921444375160793</v>
@@ -5893,7 +5893,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5943,7 +5943,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -5993,7 +5993,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6043,7 +6043,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004199025257682111</v>
+        <v>0.004265875691574188</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6064,7 +6064,7 @@
         <v>19</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K55">
         <v>0.001833527820220475</v>
@@ -6093,7 +6093,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6193,7 +6193,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6243,7 +6243,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6293,7 +6293,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>78</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K60">
         <v>0.001752691267785361</v>
@@ -6343,7 +6343,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6443,7 +6443,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6543,7 +6543,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6593,7 +6593,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6643,7 +6643,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6743,7 +6743,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6793,7 +6793,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6843,7 +6843,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6943,7 +6943,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7014,7 +7014,7 @@
         <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K74">
         <v>0.001651908493895946</v>
@@ -7043,7 +7043,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7064,7 +7064,7 @@
         <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K75">
         <v>0.001649097822003034</v>
@@ -7093,7 +7093,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003428489766126608</v>
+        <v>0.003483072916833024</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7114,7 +7114,7 @@
         <v>6</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K76">
         <v>0.001648000918427021</v>
@@ -7143,7 +7143,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003119638415090649</v>
+        <v>0.003169304508728371</v>
       </c>
       <c r="C77">
         <v>15</v>
@@ -7164,7 +7164,7 @@
         <v>2756</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K77">
         <v>0.001615160178876576</v>
@@ -7193,7 +7193,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002552688429297097</v>
+        <v>0.002593328415631448</v>
       </c>
       <c r="C78">
         <v>10</v>
@@ -7243,7 +7243,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7293,7 +7293,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7443,7 +7443,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7543,7 +7543,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7593,7 +7593,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7643,7 +7643,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7743,7 +7743,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7793,7 +7793,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7843,7 +7843,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8043,7 +8043,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8093,7 +8093,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8243,7 +8243,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8293,7 +8293,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8343,7 +8343,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8393,7 +8393,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8443,7 +8443,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8543,7 +8543,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8593,7 +8593,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8693,7 +8693,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8714,7 +8714,7 @@
         <v>9</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K108">
         <v>0.001405530585335698</v>
@@ -8743,7 +8743,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K109">
         <v>0.001333178959508469</v>
@@ -8793,7 +8793,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8843,7 +8843,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8943,7 +8943,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8993,7 +8993,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9043,7 +9043,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9143,7 +9143,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9193,7 +9193,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9243,7 +9243,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9293,7 +9293,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9343,7 +9343,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9393,7 +9393,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9443,7 +9443,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9593,7 +9593,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9643,7 +9643,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9793,7 +9793,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9843,7 +9843,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9943,7 +9943,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10043,7 +10043,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10093,7 +10093,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10143,7 +10143,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10193,7 +10193,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>6</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K139">
         <v>0.001259472631259641</v>
@@ -10293,7 +10293,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002424308362856805</v>
+        <v>0.002462904478859839</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10314,7 +10314,7 @@
         <v>54</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K140">
         <v>0.001259472631259641</v>
@@ -10343,7 +10343,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002381909720745161</v>
+        <v>0.002419830830658052</v>
       </c>
       <c r="C141">
         <v>10</v>
@@ -10364,7 +10364,7 @@
         <v>2995</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K141">
         <v>0.001256124412895541</v>
@@ -10393,28 +10393,28 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002218685077421032</v>
+        <v>0.00197201593491223</v>
       </c>
       <c r="C142">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D142">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="E142">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F142">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K142">
         <v>0.001183880985329247</v>
@@ -10443,28 +10443,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002100671089154847</v>
+        <v>0.001849527066688171</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E143">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F143">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K143">
         <v>0.001182876056552257</v>
@@ -10493,25 +10493,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00194111252130565</v>
+        <v>0.001763894350130529</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E144">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F144">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>159</v>
+        <v>785</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>407</v>
@@ -10543,25 +10543,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001820543173147284</v>
+        <v>0.00173182494834515</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="E145">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F145">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>219</v>
+        <v>796</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>408</v>
@@ -10593,25 +10593,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001736252404801715</v>
+        <v>0.001696727349229566</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E146">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>785</v>
+        <v>38</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>409</v>
@@ -10643,25 +10643,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001704685561829347</v>
+        <v>0.001696518397460592</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E147">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>796</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>410</v>
@@ -10693,25 +10693,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001670137976333261</v>
+        <v>0.001683468686704847</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D148">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E148">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F148">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>411</v>
@@ -10743,19 +10743,19 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001669932299042361</v>
+        <v>0.001567459878485866</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -10793,13 +10793,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001657087089985507</v>
+        <v>0.001546491041954736</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E150">
         <v>0.95</v>
@@ -10811,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>318</v>
+        <v>783</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>413</v>
@@ -10843,25 +10843,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001542896252969967</v>
+        <v>0.001390430265672341</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F151">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>414</v>
@@ -10893,25 +10893,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00152225601856456</v>
+        <v>0.001363103069215269</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>783</v>
+        <v>35</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>415</v>
@@ -10943,25 +10943,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001368640866900018</v>
+        <v>0.001357028394744203</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="E153">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>416</v>
@@ -10993,25 +10993,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001341741914271948</v>
+        <v>0.001336723350440606</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E154">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F154">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>417</v>
@@ -11043,25 +11043,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.00133576243587632</v>
+        <v>0.001322850775532567</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D155">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>582</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>418</v>
@@ -11093,25 +11093,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001315775591426641</v>
+        <v>0.001292443121850201</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E156">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F156">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>419</v>
@@ -11143,13 +11143,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00130212041330155</v>
+        <v>0.001278802010205413</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E157">
         <v>0.93</v>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>582</v>
+        <v>1100</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>420</v>
@@ -11193,25 +11193,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001272189277218213</v>
+        <v>0.001250933004185964</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D158">
         <v>59</v>
       </c>
       <c r="E158">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>421</v>
@@ -11243,25 +11243,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001258761935101222</v>
+        <v>0.001214115743692428</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1100</v>
+        <v>514</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>422</v>
@@ -11293,25 +11293,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001231329663595209</v>
+        <v>0.001134200531721991</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>35</v>
+        <v>304</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>423</v>
@@ -11343,25 +11343,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001195089365492671</v>
+        <v>0.001065364431330073</v>
       </c>
       <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>43</v>
+      </c>
+      <c r="E161">
+        <v>0.98</v>
+      </c>
+      <c r="F161">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161">
         <v>3</v>
-      </c>
-      <c r="D161">
-        <v>53</v>
-      </c>
-      <c r="E161">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F161">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>514</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>424</v>
@@ -11393,25 +11393,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001116426502859406</v>
+        <v>0.001056087957972684</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>304</v>
+        <v>16</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>425</v>
@@ -11443,25 +11443,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0010486691313174</v>
+        <v>0.001018606920764829</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E163">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>426</v>
@@ -11493,25 +11493,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001039538029347685</v>
+        <v>0.0009946784265473917</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E164">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>427</v>
@@ -11543,25 +11543,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001002644356559524</v>
+        <v>0.0009716456288452254</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>428</v>
@@ -11593,13 +11593,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0009790908451912076</v>
+        <v>0.0009470748588210969</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E166">
         <v>0.97</v>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>429</v>
@@ -11643,13 +11643,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0009564189938999221</v>
+        <v>0.0009470748588210969</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E167">
         <v>0.97</v>
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>430</v>
@@ -11693,25 +11693,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0009322332718134116</v>
+        <v>0.0009326535463089042</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
         <v>32</v>
       </c>
       <c r="E168">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F168">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>431</v>
@@ -11743,25 +11743,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0009322332718134116</v>
+        <v>0.0009138671804905147</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E169">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F169">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>432</v>
@@ -11793,25 +11793,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0009180379553377742</v>
+        <v>0.0008924933700204878</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F170">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>433</v>
@@ -11843,25 +11843,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0008995459901998113</v>
+        <v>0.0008457429129291147</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E171">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F171">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>434</v>
@@ -11893,13 +11893,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0008785071281922233</v>
+        <v>0.0008457429129291147</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>0.96</v>
@@ -11911,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>435</v>
@@ -11943,13 +11943,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008324892963734019</v>
+        <v>0.000828823052019871</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E173">
         <v>0.96</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>436</v>
@@ -11993,13 +11993,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008324892963734019</v>
+        <v>0.0008111444878867368</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E174">
         <v>0.96</v>
@@ -12011,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>437</v>
@@ -12043,25 +12043,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0008158345861916888</v>
+        <v>0.0007812357616485932</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E175">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F175">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>438</v>
@@ -12093,25 +12093,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0007984330624057976</v>
+        <v>0.0007314226303520733</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>439</v>
@@ -12143,25 +12143,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0007689930350868768</v>
+        <v>0.0007314226303520733</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E177">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F177">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>440</v>
@@ -12193,25 +12193,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0007199605241556601</v>
+        <v>0.0007124246752654243</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>441</v>
@@ -12243,25 +12243,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0007199605241556601</v>
+        <v>0.0007087954999095042</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>442</v>
@@ -12293,25 +12293,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007012602855596987</v>
+        <v>0.0006854662223399994</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F180">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>443</v>
@@ -12343,13 +12343,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0006976879829222437</v>
+        <v>0.0006848645405470034</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>0.9399999999999999</v>
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>444</v>
@@ -12393,25 +12393,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.000674724297892388</v>
+        <v>0.0006848645405470034</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E182">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>445</v>
@@ -12443,25 +12443,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006741320450400914</v>
+        <v>0.0006782143496324239</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>446</v>
@@ -12493,13 +12493,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006741320450400914</v>
+        <v>0.000659485647092708</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E184">
         <v>0.9399999999999999</v>
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>447</v>
@@ -12543,25 +12543,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006675860691050957</v>
+        <v>0.000659485647092708</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>520</v>
+        <v>96</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>448</v>
@@ -12593,7 +12593,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006491508636059731</v>
+        <v>0.000659485647092708</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12611,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>449</v>
@@ -12643,25 +12643,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006491508636059731</v>
+        <v>0.000632490375166332</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>450</v>
@@ -12693,25 +12693,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006491508636059731</v>
+        <v>0.000632490375166332</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>451</v>
@@ -12743,13 +12743,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006225786339273769</v>
+        <v>0.0006036803293618116</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E189">
         <v>0.93</v>
@@ -12761,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>452</v>
@@ -12793,13 +12793,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006225786339273769</v>
+        <v>0.0006036803293618116</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E190">
         <v>0.93</v>
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>453</v>
@@ -12843,25 +12843,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005942200696478073</v>
+        <v>0.0005728199213429965</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>454</v>
@@ -12893,25 +12893,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005942200696478073</v>
+        <v>0.0005728199213429965</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F192">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>455</v>
@@ -12943,7 +12943,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005638432743301827</v>
+        <v>0.0005728199213429965</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12961,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>456</v>
@@ -12993,7 +12993,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005638432743301827</v>
+        <v>0.0005728199213429965</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>457</v>
@@ -13043,25 +13043,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005638432743301827</v>
+        <v>0.0005648718956166649</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E195">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>458</v>
@@ -13093,13 +13093,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005638432743301827</v>
+        <v>0.0005396269537710954</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E196">
         <v>0.92</v>
@@ -13111,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>459</v>
@@ -13143,25 +13143,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005560198019211078</v>
+        <v>0.0005396269537710954</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>460</v>
@@ -13193,7 +13193,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005311704729433229</v>
+        <v>0.0005396269537710954</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13211,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>461</v>
@@ -13243,7 +13243,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005311704729433229</v>
+        <v>0.0005396269537710954</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13261,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>462</v>
@@ -13293,25 +13293,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005311704729433229</v>
+        <v>0.0005037603189648054</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>463</v>
@@ -13343,25 +13343,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005311704729433229</v>
+        <v>0.0005037603189648054</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>464</v>
@@ -13393,7 +13393,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004958659032960776</v>
+        <v>0.0005037603189648054</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13411,10 +13411,10 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K202">
         <v>0.001153013314045151</v>
@@ -13443,28 +13443,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004958659032960776</v>
+        <v>0.0004953066429141435</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K203">
         <v>0.001121552760302567</v>
@@ -13493,28 +13493,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004958659032960776</v>
+        <v>0.000424633957105352</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E204">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="F204">
-        <v>0.08999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K204">
         <v>0.001107921473277083</v>
@@ -13543,28 +13543,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004875447045965692</v>
+        <v>0.0004222462354054041</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K205">
         <v>0.001107670170680997</v>
@@ -13593,25 +13593,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004179795287229518</v>
+        <v>0.0004222462354054041</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F206">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>465</v>
@@ -13643,7 +13643,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004156292249515128</v>
+        <v>0.0004222462354054041</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13661,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>466</v>
@@ -13693,7 +13693,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004156292249515128</v>
+        <v>0.0004222462354054041</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>467</v>
@@ -13743,25 +13743,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004156292249515128</v>
+        <v>0.0004124346256271452</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E209">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="F209">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>38</v>
+        <v>931</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>468</v>
@@ -13793,25 +13793,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004156292249515128</v>
+        <v>0.0003754549374746101</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>469</v>
@@ -13843,25 +13843,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004059713726707243</v>
+        <v>0.0003754549374746101</v>
       </c>
       <c r="C211">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="F211">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>931</v>
+        <v>34</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>470</v>
@@ -13893,7 +13893,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003695711923090686</v>
+        <v>0.0003754549374746101</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>471</v>
@@ -13943,7 +13943,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003695711923090686</v>
+        <v>0.0003754549374746101</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13961,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>472</v>
@@ -13993,7 +13993,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003695711923090686</v>
+        <v>0.0003754549374746101</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14011,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>473</v>
@@ -14043,25 +14043,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003695711923090686</v>
+        <v>0.0003316191173218119</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>474</v>
@@ -14093,25 +14093,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003695711923090686</v>
+        <v>0.0003236517965550096</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>475</v>
@@ -14143,25 +14143,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003264223222244634</v>
+        <v>0.0002845815675972389</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
       <c r="D217">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>476</v>
@@ -14193,25 +14193,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003185798571470264</v>
+        <v>0.0002845815675972389</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F218">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>477</v>
@@ -14243,25 +14243,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002801218967940931</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>478</v>
@@ -14293,25 +14293,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002801218967940931</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>479</v>
@@ -14343,7 +14343,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002617392724719692</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>480</v>
@@ -14393,7 +14393,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0002617392724719692</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>481</v>
@@ -14443,7 +14443,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0002617392724719692</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>482</v>
@@ -14493,7 +14493,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002617392724719692</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>483</v>
@@ -14543,7 +14543,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002617392724719692</v>
+        <v>0.0002659062833513004</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>484</v>
@@ -14593,25 +14593,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002617392724719692</v>
+        <v>0.0002348667785354171</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>485</v>
@@ -14643,25 +14643,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002617392724719692</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>486</v>
@@ -14693,25 +14693,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002311861869788139</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>487</v>
@@ -14743,7 +14743,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>488</v>
@@ -14793,7 +14793,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>489</v>
@@ -14843,7 +14843,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>490</v>
@@ -14893,7 +14893,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>491</v>
@@ -14943,7 +14943,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>492</v>
@@ -14993,7 +14993,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>493</v>
@@ -15043,7 +15043,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>494</v>
@@ -15093,7 +15093,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>495</v>
@@ -15143,7 +15143,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>496</v>
@@ -15193,7 +15193,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15211,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>497</v>
@@ -15243,7 +15243,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15261,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>498</v>
@@ -15293,7 +15293,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>499</v>
@@ -15343,7 +15343,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001980760927819414</v>
+        <v>0.0002012295562487054</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>500</v>
@@ -15393,25 +15393,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001980760927819414</v>
+        <v>0.000182612870891868</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>501</v>
@@ -15443,25 +15443,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001980760927819414</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>502</v>
@@ -15493,13 +15493,13 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001797511490471571</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E244">
         <v>0.75</v>
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>503</v>
@@ -15543,7 +15543,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>504</v>
@@ -15593,7 +15593,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>505</v>
@@ -15643,7 +15643,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>506</v>
@@ -15693,7 +15693,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>507</v>
@@ -15743,7 +15743,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>508</v>
@@ -15793,7 +15793,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15811,7 +15811,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>509</v>
@@ -15843,7 +15843,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>510</v>
@@ -15893,7 +15893,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001271032564173191</v>
+        <v>0.0001291267993395839</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15911,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>511</v>
@@ -15943,28 +15943,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001271032564173191</v>
+        <v>0.000128461735471058</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F253">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K253">
         <v>0.001017769018789863</v>
@@ -15993,28 +15993,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001271032564173191</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E254">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F254">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K254">
         <v>0.0009896179585468549</v>
@@ -16043,28 +16043,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001264486147484519</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E255">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F255">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K255">
         <v>0.0009896179585468549</v>
@@ -16093,7 +16093,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16111,10 +16111,10 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K256">
         <v>0.000949400201004526</v>
@@ -16143,7 +16143,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16161,10 +16161,10 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K257">
         <v>0.0009087263921226462</v>
@@ -16193,7 +16193,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16211,10 +16211,10 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K258">
         <v>0.0008627591128260245</v>
@@ -16243,7 +16243,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16261,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>512</v>
@@ -16293,7 +16293,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16311,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>513</v>
@@ -16343,7 +16343,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16361,7 +16361,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>514</v>
@@ -16393,7 +16393,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>515</v>
@@ -16443,7 +16443,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>516</v>
@@ -16493,7 +16493,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16511,7 +16511,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>517</v>
@@ -16543,7 +16543,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.173453597256659E-05</v>
+        <v>5.255817383248279E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>518</v>
@@ -16593,25 +16593,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>5.173453597256659E-05</v>
+        <v>2.568427631174895E-05</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F266">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>519</v>
@@ -16643,25 +16643,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>5.173453597256659E-05</v>
+        <v>0</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>520</v>
@@ -16693,25 +16693,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>2.528177864426281E-05</v>
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E268">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F268">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>521</v>
@@ -16761,7 +16761,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>522</v>
@@ -16811,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>523</v>
@@ -16861,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>524</v>
@@ -16911,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>525</v>
@@ -16961,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>526</v>
@@ -17011,7 +17011,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>527</v>
@@ -17061,7 +17061,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>528</v>
@@ -17111,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>529</v>
@@ -17161,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>530</v>
@@ -17211,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>531</v>
@@ -17246,10 +17246,10 @@
         <v>0</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E279">
         <v>0.5</v>
@@ -17261,7 +17261,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>532</v>
@@ -17311,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>533</v>
@@ -17346,10 +17346,10 @@
         <v>0</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E281">
         <v>0.5</v>
@@ -17361,7 +17361,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>534</v>
@@ -17411,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>535</v>
@@ -17461,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>536</v>
@@ -17511,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>537</v>
@@ -17561,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>538</v>
@@ -17589,30 +17589,6 @@
       </c>
     </row>
     <row r="286" spans="1:17">
-      <c r="A286" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>2</v>
-      </c>
-      <c r="E286">
-        <v>0.5</v>
-      </c>
-      <c r="F286">
-        <v>0.5</v>
-      </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286">
-        <v>98</v>
-      </c>
       <c r="J286" s="1" t="s">
         <v>539</v>
       </c>
@@ -17639,30 +17615,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>2</v>
-      </c>
-      <c r="E287">
-        <v>0.5</v>
-      </c>
-      <c r="F287">
-        <v>0.5</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>40</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>540</v>
       </c>
@@ -21044,7 +20996,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K417">
         <v>0.000831171535290332</v>
@@ -21070,7 +21022,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K418">
         <v>0.0007411877376424505</v>
@@ -21096,7 +21048,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K419">
         <v>0.0007411877376424505</v>
@@ -21122,7 +21074,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K420">
         <v>0.0006980218091213442</v>
@@ -21148,7 +21100,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K421">
         <v>0.0006543170721829398</v>
@@ -21174,7 +21126,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K422">
         <v>0.0006543170721829398</v>
@@ -21200,7 +21152,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K423">
         <v>0.0006100628192097716</v>
@@ -21226,7 +21178,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K424">
         <v>0.0006100628192097716</v>
@@ -21252,7 +21204,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K425">
         <v>0.0006100628192097716</v>
@@ -29936,7 +29888,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K759">
         <v>0.0005652512333927857</v>
@@ -29962,7 +29914,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K760">
         <v>0.0005652512333927857</v>
@@ -29988,7 +29940,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K761">
         <v>0.0005493280068535203</v>
@@ -30014,7 +29966,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K762">
         <v>0.0005380994310409006</v>
@@ -30040,7 +29992,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K763">
         <v>0.0005198790069492461</v>
@@ -30066,7 +30018,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K764">
         <v>0.0005198790069492461</v>
@@ -30092,7 +30044,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K765">
         <v>0.0005046281127655952</v>
@@ -30118,7 +30070,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K766">
         <v>0.0004739497691573194</v>
@@ -30144,7 +30096,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K767">
         <v>0.0004739497691573194</v>
@@ -30170,7 +30122,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K768">
         <v>0.0004739497691573194</v>
@@ -30196,7 +30148,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K769">
         <v>0.0004739497691573194</v>
@@ -30222,7 +30174,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K770">
         <v>0.0004386733660460845</v>
@@ -30248,7 +30200,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K771">
         <v>0.0004274777908923448</v>
@@ -30274,7 +30226,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K772">
         <v>0.0004274777908923448</v>
@@ -30300,7 +30252,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K773">
         <v>0.0004274777908923448</v>
@@ -30326,7 +30278,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K774">
         <v>0.0004274777908923448</v>
@@ -30352,7 +30304,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K775">
         <v>0.0003804937566416434</v>
@@ -30378,7 +30330,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K776">
         <v>0.0003804937566416434</v>
@@ -30404,7 +30356,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K777">
         <v>0.0003804937566416434</v>
@@ -30430,7 +30382,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K778">
         <v>0.0003694912676803709</v>
@@ -30456,7 +30408,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K779">
         <v>0.0003016160240543973</v>
@@ -30482,7 +30434,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K780">
         <v>0.000285255718523527</v>
@@ -30508,7 +30460,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K781">
         <v>0.000285255718523527</v>
@@ -30534,7 +30486,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K782">
         <v>0.000285255718523527</v>
@@ -30560,7 +30512,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K783">
         <v>0.000285255718523527</v>
@@ -30586,7 +30538,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K784">
         <v>0.0002372632197807862</v>
@@ -30612,7 +30564,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K785">
         <v>0.0002372632197807862</v>
@@ -30638,7 +30590,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K786">
         <v>0.0002372632197807862</v>
@@ -30664,7 +30616,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K787">
         <v>0.0002372632197807862</v>
@@ -30690,7 +30642,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K788">
         <v>0.0002372632197807862</v>
@@ -30716,7 +30668,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K789">
         <v>0.0002190996536702188</v>
@@ -30742,7 +30694,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K790">
         <v>0.0001893551960592282</v>
@@ -30768,7 +30720,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K791">
         <v>0.000173754659495806</v>
@@ -30794,7 +30746,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K792">
         <v>0.0001680232557259183</v>
@@ -30820,7 +30772,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K793">
         <v>0.0001420159690977283</v>
@@ -30846,7 +30798,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K794">
         <v>0.0001420159690977283</v>
@@ -30872,7 +30824,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K795">
         <v>0.0001420159690977283</v>
@@ -30898,7 +30850,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K796">
         <v>0.0001420159690977283</v>
@@ -30924,7 +30876,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K797">
         <v>0.0001420159690977283</v>
@@ -30950,7 +30902,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K798">
         <v>0.0001420159690977283</v>
@@ -30976,7 +30928,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K799">
         <v>0.0001420159690977283</v>
@@ -31002,7 +30954,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K800">
         <v>0.0001359440933813955</v>
@@ -31028,7 +30980,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K801">
         <v>0.0001359440933813955</v>
@@ -31054,7 +31006,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K802">
         <v>0.0001049492146147061</v>
@@ -31080,7 +31032,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K803">
         <v>9.6126990292242E-05</v>
@@ -31106,7 +31058,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K804">
         <v>9.6126990292242E-05</v>
@@ -31132,7 +31084,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K805">
         <v>9.6126990292242E-05</v>
@@ -31158,7 +31110,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K806">
         <v>9.6126990292242E-05</v>
@@ -31184,7 +31136,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K807">
         <v>9.6126990292242E-05</v>
@@ -31210,7 +31162,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K808">
         <v>9.6126990292242E-05</v>
@@ -31236,7 +31188,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K809">
         <v>9.6126990292242E-05</v>
@@ -31262,7 +31214,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K810">
         <v>9.6126990292242E-05</v>
@@ -31288,7 +31240,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K811">
         <v>9.6126990292242E-05</v>
@@ -31314,7 +31266,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K812">
         <v>9.6126990292242E-05</v>
@@ -31340,7 +31292,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K813">
         <v>9.6126990292242E-05</v>
@@ -31366,7 +31318,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K814">
         <v>9.6126990292242E-05</v>
@@ -31392,7 +31344,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K815">
         <v>9.6126990292242E-05</v>
@@ -31418,7 +31370,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K816">
         <v>9.6126990292242E-05</v>
@@ -31444,7 +31396,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K817">
         <v>9.6126990292242E-05</v>
@@ -31470,7 +31422,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K818">
         <v>7.554671614897595E-05</v>
@@ -31496,7 +31448,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K819">
         <v>5.341959528531616E-05</v>
@@ -31522,7 +31474,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K820">
         <v>5.341959528531616E-05</v>
@@ -31548,7 +31500,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K821">
         <v>5.341959528531616E-05</v>
@@ -31574,7 +31526,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K822">
         <v>5.341959528531616E-05</v>
@@ -31600,7 +31552,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K823">
         <v>5.341959528531616E-05</v>
@@ -31626,7 +31578,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K824">
         <v>5.341959528531616E-05</v>
@@ -31652,7 +31604,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K825">
         <v>5.341959528531616E-05</v>
@@ -31678,7 +31630,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K826">
         <v>5.341959528531616E-05</v>
@@ -31704,7 +31656,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K827">
         <v>5.341959528531616E-05</v>
@@ -31730,7 +31682,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K828">
         <v>5.341959528531616E-05</v>
@@ -31756,7 +31708,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K829">
         <v>4.851403184606806E-05</v>
@@ -31782,7 +31734,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K830">
         <v>1.775328988602472E-05</v>
@@ -31808,7 +31760,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K831">
         <v>1.775328988602472E-05</v>
@@ -31834,7 +31786,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K832">
         <v>1.775328988602472E-05</v>
@@ -31860,7 +31812,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K833">
         <v>1.775328988602472E-05</v>
@@ -31886,7 +31838,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K834">
         <v>1.775328988602472E-05</v>
@@ -31912,7 +31864,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K835">
         <v>1.775328988602472E-05</v>
@@ -31938,7 +31890,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K836">
         <v>1.775328988602472E-05</v>
@@ -31964,7 +31916,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K837">
         <v>1.775328988602472E-05</v>
@@ -31990,7 +31942,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K838">
         <v>1.775328988602472E-05</v>
@@ -32016,7 +31968,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K839">
         <v>1.775328988602472E-05</v>
@@ -32042,7 +31994,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K840">
         <v>1.775328988602472E-05</v>
@@ -32068,7 +32020,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K841">
         <v>1.775328988602472E-05</v>
@@ -32094,7 +32046,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K842">
         <v>7.513400556427923E-06</v>
@@ -32120,7 +32072,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K843">
         <v>0</v>
@@ -32146,7 +32098,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K844">
         <v>0</v>
@@ -32172,7 +32124,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K845">
         <v>0</v>
@@ -32198,7 +32150,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K846">
         <v>0</v>
@@ -32224,7 +32176,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K847">
         <v>0</v>
@@ -32250,7 +32202,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K848">
         <v>0</v>
@@ -32276,7 +32228,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K849">
         <v>0</v>
@@ -32302,7 +32254,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K850">
         <v>0</v>
@@ -32328,7 +32280,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K851">
         <v>0</v>
@@ -32354,7 +32306,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K852">
         <v>0</v>
@@ -32380,7 +32332,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K853">
         <v>0</v>
@@ -32406,7 +32358,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -32432,7 +32384,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K855">
         <v>0</v>
@@ -32458,7 +32410,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -32484,7 +32436,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -32510,7 +32462,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -32536,7 +32488,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K859">
         <v>0</v>
@@ -32562,7 +32514,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K860">
         <v>0</v>
@@ -32588,7 +32540,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K861">
         <v>0</v>
